--- a/biology/Zoologie/Arinae/Arinae.xlsx
+++ b/biology/Zoologie/Arinae/Arinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arinae sont une sous-famille d'oiseaux néotropicaux de l'ordre des Psittaciformes appelés aras, conures, Papegeais, amazones, touïs, piones, Loros… Plusieurs espèces se sont éteintes depuis la découverte de l'Amérique par les occidentaux.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux colorés forment, selon plusieurs classifications aviaires, un groupe homogène du fait de critères biogéographiques et morphologiques. Dans la classification de Peters, ces oiseaux sont regroupés dans la tribu des Arini des Psittacinae. Ce groupe, concernant les mêmes oiseaux, a été élevé au rang de sous-famille dans la classification de Howard et Moore sous le nom des Arinae.
-On distingue facilement parmi ces espèces, deux groupes distincts, les espèces à rectrices courtes et les espèces à rectrices longues[1]. Ces deux groupes pourraient être issus de lignées différentes, aussi le groupe des Arinae pourrait être scindé en deux sous-familles distinctes si cette hypothèse se confirmait.
+On distingue facilement parmi ces espèces, deux groupes distincts, les espèces à rectrices courtes et les espèces à rectrices longues. Ces deux groupes pourraient être issus de lignées différentes, aussi le groupe des Arinae pourrait être scindé en deux sous-familles distinctes si cette hypothèse se confirmait.
 </t>
         </is>
       </c>
